--- a/assets/findings/2024-02-04-findings.xlsx
+++ b/assets/findings/2024-02-04-findings.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,24 +433,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="45.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,90 +472,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -576,51 +582,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0026</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-006</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2890791</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -632,14 +636,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -652,7 +656,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -673,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,24 +691,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="45.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="36" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -722,90 +730,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -827,40 +840,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0011</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-008</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>348000</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -868,27 +881,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>-2045</v>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -906,7 +917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -928,40 +942,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0012</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022-009</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>7271381</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -969,27 +983,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>146479</v>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -997,17 +1009,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1029,51 +1044,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0017</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022-007</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>84.041</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>IMPACT AID</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21248435</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1085,27 +1098,30 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1130,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,24 +1157,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="45.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1179,90 +1196,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1284,40 +1306,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0011</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-008</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>348000</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1325,27 +1347,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>-2045</v>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1363,7 +1383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1385,40 +1408,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0012</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022-009</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>7271381</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -1426,27 +1449,25 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>146479</v>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1454,17 +1475,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1486,51 +1510,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0017</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022-007</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>84.041</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>IMPACT AID</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21248435</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1542,27 +1564,30 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1584,51 +1609,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>CXQZVRZCCF41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0026</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2022-006</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>2890791</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1640,14 +1663,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1660,7 +1683,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/assets/findings/2024-02-04-findings.xlsx
+++ b/assets/findings/2024-02-04-findings.xlsx
@@ -623,8 +623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -656,8 +658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -881,8 +885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>-2045</v>
@@ -917,8 +923,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -983,8 +991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>146479</v>
@@ -1019,8 +1029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1085,8 +1097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1118,8 +1132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1347,8 +1363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>-2045</v>
@@ -1383,8 +1401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1449,8 +1469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>146479</v>
@@ -1485,8 +1507,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1551,8 +1575,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1584,8 +1610,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1650,8 +1678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1683,8 +1713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
